--- a/DataRobot/DataDevice.xlsx
+++ b/DataRobot/DataDevice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Cheetah\DataRobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2EF302-9254-42FC-9DAC-C2886FEBCE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CD00D0-04CF-46D5-A03E-ADD56B89BD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="945" windowWidth="21600" windowHeight="11295" xr2:uid="{3D502191-6A72-4196-B4C3-E838EC6D8F1D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D502191-6A72-4196-B4C3-E838EC6D8F1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -69,10 +69,16 @@
     <t>Feetech SCS15 Smart Control Digital Servo</t>
   </si>
   <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>Limit Volt</t>
+    <t>HELICOX 3000mAh 11.1V</t>
+  </si>
+  <si>
+    <t>https://www.hythai.net/%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2-378-helicox_3000_mah_11.1_v.html</t>
+  </si>
+  <si>
+    <t>9A 300W Adjustable Power Supply Module DC-DC CC CV Buck Converter Step down Power Module 5-40V to 1.2-35V</t>
+  </si>
+  <si>
+    <t>https://www.modulemore.com/product/807/%E0%B9%82%E0%B8%A1%E0%B8%94%E0%B8%B9%E0%B8%A5%E0%B8%A5%E0%B8%94%E0%B9%81%E0%B8%A3%E0%B8%87%E0%B8%94%E0%B8%B1%E0%B8%99%E0%B9%84%E0%B8%9F-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%81%E0%B8%AA%E0%B8%AA%E0%B8%B9%E0%B8%87%E0%B8%AA%E0%B8%B8%E0%B8%94-9a-300w-adjustable-power-supply-module-dc-dc-cc-cv-buck-converter-step-d?fbclid=IwAR0h94QLd-_hod3kcMB1pxOVZBBqdYTHWw5HlcWpOUsjWL-Mm8flkFQbSow</t>
   </si>
 </sst>
 </file>
@@ -457,6 +463,126 @@
         <a:xfrm>
           <a:off x="4162426" y="2905125"/>
           <a:ext cx="1036720" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161367</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1039906</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>788895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="แบตเตอรี่ลิโพ Helicox 3000mah 30c (11.1)(7.4) (2เซล/3เซล) แบตลิโพ lipo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277AB924-0F93-FD3E-2216-43620156D6EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="8296" b="8746"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4312026" y="4607859"/>
+          <a:ext cx="878539" cy="717177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1057836</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>936016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="โมดูลลดแรงดันไฟ กระแสสูงสุด 9A 300W Adjustable Power Supply Module DC-DC CC CV Buck Converter Step down Power Module 5-40V to 1.2-35V">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4543F3E6-15EA-7535-E5CB-EAF410D0CA57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4338918" y="5459506"/>
+          <a:ext cx="869577" cy="855334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -777,20 +903,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA0BE7E-4F30-4C65-95D9-F8FD06407A85}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="39.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="101.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="39.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="101.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -807,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -822,7 +948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -837,7 +963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -852,7 +978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -867,7 +993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -880,7 +1006,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -891,20 +1017,24 @@
         <v>1</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -912,9 +1042,10 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{FC910F01-F8FC-40D1-B27A-73206017B2EC}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{79DC9A56-DDEE-420B-AD31-57405030BE45}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{0A771F52-E867-45C5-BC90-9BB8CECAA9B6}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{93F85093-02EF-4EFF-83E1-249B0CECE5F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>